--- a/数据整理/stocks/A股/深证主板/002945-华林证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002945-华林证券.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,329 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002945-华林证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002945-华林证券.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011815</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒越优势精选混合型发起式证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2085</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -541,36 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013028</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>恒越品质生活混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0541</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,17 +851,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -935,14 +891,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -951,14 +929,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002945-华林证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002945-华林证券.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -515,6 +532,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -834,7 +945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
